--- a/natmiOut/OldD4/LR-pairs_lrc2p/A2m-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/A2m-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.188000402380327</v>
+        <v>0.5156313333333333</v>
       </c>
       <c r="H2">
-        <v>0.188000402380327</v>
+        <v>1.546894</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>0.6315125763117342</v>
+        <v>2.035029120606222</v>
       </c>
       <c r="R2">
-        <v>0.6315125763117342</v>
+        <v>18.315262085456</v>
       </c>
       <c r="S2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="T2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.188000402380327</v>
+        <v>0.5156313333333333</v>
       </c>
       <c r="H3">
-        <v>0.188000402380327</v>
+        <v>1.546894</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>32.90604462466884</v>
+        <v>95.8057167975891</v>
       </c>
       <c r="R3">
-        <v>32.90604462466884</v>
+        <v>862.251451178302</v>
       </c>
       <c r="S3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="T3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.188000402380327</v>
+        <v>0.5156313333333333</v>
       </c>
       <c r="H4">
-        <v>0.188000402380327</v>
+        <v>1.546894</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>21.72726485762236</v>
+        <v>60.50388382156245</v>
       </c>
       <c r="R4">
-        <v>21.72726485762236</v>
+        <v>544.5349543940621</v>
       </c>
       <c r="S4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="T4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.188000402380327</v>
+        <v>0.5156313333333333</v>
       </c>
       <c r="H5">
-        <v>0.188000402380327</v>
+        <v>1.546894</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>25.50287585435388</v>
+        <v>72.06677621983978</v>
       </c>
       <c r="R5">
-        <v>25.50287585435388</v>
+        <v>648.600985978558</v>
       </c>
       <c r="S5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="T5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.188000402380327</v>
+        <v>0.5156313333333333</v>
       </c>
       <c r="H6">
-        <v>0.188000402380327</v>
+        <v>1.546894</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>7.709900637235003</v>
+        <v>21.37733978971866</v>
       </c>
       <c r="R6">
-        <v>7.709900637235003</v>
+        <v>128.264038738312</v>
       </c>
       <c r="S6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="T6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
     </row>
   </sheetData>
